--- a/LogisticRegression/output.xlsx
+++ b/LogisticRegression/output.xlsx
@@ -22053,11 +22053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1594160832"/>
-        <c:axId val="1594155392"/>
+        <c:axId val="927881280"/>
+        <c:axId val="927871488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1594160832"/>
+        <c:axId val="927881280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22099,7 +22099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594155392"/>
+        <c:crossAx val="927871488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22107,7 +22107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1594155392"/>
+        <c:axId val="927871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22157,7 +22157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594160832"/>
+        <c:crossAx val="927881280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22541,11 +22541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1589441968"/>
-        <c:axId val="1589443056"/>
+        <c:axId val="927869312"/>
+        <c:axId val="927872576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1589441968"/>
+        <c:axId val="927869312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22587,7 +22587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589443056"/>
+        <c:crossAx val="927872576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22595,7 +22595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1589443056"/>
+        <c:axId val="927872576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22645,7 +22645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1589441968"/>
+        <c:crossAx val="927869312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23870,6 +23870,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>29430</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>181692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="תמונה 3" descr="C:\WINDOWS\system32\cmd.exe"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13420725" y="1905000"/>
+          <a:ext cx="6125430" cy="5134692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24138,8 +24182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:SF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
